--- a/TodoListTrinome.xlsx
+++ b/TodoListTrinome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Randie\Documents\L2\WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE788674-F596-408E-AFFF-D0017F0699CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27480B68-B9FC-4852-B743-811C79821F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D43798CA-681C-48F3-BE3D-5C18BED38538}"/>
   </bookViews>
@@ -16,24 +16,36 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$I$22</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
   <si>
     <t>module/fonctionnalité</t>
   </si>
@@ -77,21 +89,9 @@
     <t>avancement</t>
   </si>
   <si>
-    <t>html</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>connnexionAdmin</t>
-  </si>
-  <si>
     <t>Mitia</t>
   </si>
   <si>
-    <t>table theAdmin</t>
-  </si>
-  <si>
     <t>Liantsoa</t>
   </si>
   <si>
@@ -104,172 +104,283 @@
     <t>Randie</t>
   </si>
   <si>
-    <t>loginAdmin</t>
-  </si>
-  <si>
-    <t>Authentification-BackOffice</t>
-  </si>
-  <si>
-    <t>Accueil-BackOffice</t>
-  </si>
-  <si>
-    <t>accueilAdmin</t>
-  </si>
-  <si>
-    <t>Gestion-BackOffice</t>
-  </si>
-  <si>
-    <t>varieteThe</t>
-  </si>
-  <si>
-    <t>Model (adminModel)</t>
-  </si>
-  <si>
-    <t>Intégration (adminController)</t>
-  </si>
-  <si>
-    <t>CRUD-Rendement par pied</t>
-  </si>
-  <si>
-    <t>parcelle</t>
-  </si>
-  <si>
-    <t>html/css (listeVarieteThe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model (varieteTheModel) </t>
-  </si>
-  <si>
-    <t>table theVariete</t>
-  </si>
-  <si>
-    <t>listeVarieteThe</t>
-  </si>
-  <si>
-    <t>html/css (liste)</t>
-  </si>
-  <si>
-    <t>Model (parcelleModel)</t>
-  </si>
-  <si>
-    <t>CRUD</t>
-  </si>
-  <si>
-    <t>table theParcelle</t>
-  </si>
-  <si>
-    <t>listeParcelle</t>
-  </si>
-  <si>
-    <t>cueilleur</t>
-  </si>
-  <si>
-    <t>Model (cueilleurModel)</t>
-  </si>
-  <si>
-    <t>table theCueilleur</t>
-  </si>
-  <si>
-    <t>listeCueilleur</t>
-  </si>
-  <si>
-    <t>categorieDepense</t>
-  </si>
-  <si>
-    <t>Model (categorieDepenseModel)</t>
-  </si>
-  <si>
-    <t>table categorieDepense</t>
-  </si>
-  <si>
-    <t>salaireCueilleur</t>
-  </si>
-  <si>
-    <t>Model (salaireCueilleurModel)</t>
-  </si>
-  <si>
-    <t>Configuration montant salaire</t>
-  </si>
-  <si>
-    <t>table theSalaireCueilleur</t>
-  </si>
-  <si>
-    <t>Intégration(amdinController)</t>
-  </si>
-  <si>
-    <t>Authentification-FrontOffice</t>
-  </si>
-  <si>
-    <t>loginFrontOffice</t>
-  </si>
-  <si>
-    <t>Model (loginModel)</t>
-  </si>
-  <si>
-    <t>connnexion</t>
-  </si>
-  <si>
-    <t>table theUsers</t>
-  </si>
-  <si>
-    <t>Intégration (loginController)</t>
-  </si>
-  <si>
-    <t>FrontOffice</t>
-  </si>
-  <si>
-    <t>saisieCueillette</t>
-  </si>
-  <si>
-    <t>Model (saisieCueilletteModel)</t>
-  </si>
-  <si>
-    <t>Intégration (saisieCueilletteController)</t>
-  </si>
-  <si>
-    <t>saisieDepense</t>
-  </si>
-  <si>
-    <t>Validation Ajax (verification poids), ajout base</t>
-  </si>
-  <si>
-    <t>table theCueillette, view feuilleRestant</t>
-  </si>
-  <si>
-    <t>table tea_depenses</t>
-  </si>
-  <si>
-    <t>getParcelleById, ajoutCueillette, getFeuilleRestant</t>
-  </si>
-  <si>
-    <t>ajoutbase</t>
-  </si>
-  <si>
-    <t>resultat</t>
-  </si>
-  <si>
-    <t>Model (depenseModel)</t>
-  </si>
-  <si>
-    <t>Intégration (depenseController)</t>
-  </si>
-  <si>
-    <t>getFeuilleRestant, getTotalCueillette</t>
-  </si>
-  <si>
-    <t>ajoutDepense, getTotalDepense</t>
-  </si>
-  <si>
-    <t>Model depenseModel)</t>
-  </si>
-  <si>
-    <t>getTotalDepense</t>
-  </si>
-  <si>
-    <t>Model (resultatModel)</t>
-  </si>
-  <si>
-    <t>getCoutRevient</t>
+    <t>Ajouter espèce</t>
+  </si>
+  <si>
+    <t>Modifier espèce</t>
+  </si>
+  <si>
+    <t>ajoutEspece</t>
+  </si>
+  <si>
+    <t>modifEspece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base </t>
+  </si>
+  <si>
+    <t>table elevage_especes</t>
+  </si>
+  <si>
+    <t>Model (especeModel)</t>
+  </si>
+  <si>
+    <t>Integration (especeController)</t>
+  </si>
+  <si>
+    <t>ajoutEspece()</t>
+  </si>
+  <si>
+    <t>fonction modifEspece</t>
+  </si>
+  <si>
+    <t>Suppprimer espèce</t>
+  </si>
+  <si>
+    <t>suppEspece</t>
+  </si>
+  <si>
+    <t>Supprimer espèce</t>
+  </si>
+  <si>
+    <t>fonction suppEspece</t>
+  </si>
+  <si>
+    <t>table elevage_animaux</t>
+  </si>
+  <si>
+    <t>Model (animauxModel)</t>
+  </si>
+  <si>
+    <t>Integration (animauxController)</t>
+  </si>
+  <si>
+    <t>Détail d'un animal</t>
+  </si>
+  <si>
+    <t>detailAnimal</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View elevage_animaux_especes </t>
+  </si>
+  <si>
+    <t>fonction getDetails</t>
+  </si>
+  <si>
+    <t>affficherDetail</t>
+  </si>
+  <si>
+    <t>ajoutAliment</t>
+  </si>
+  <si>
+    <t>table elevage_alimentation</t>
+  </si>
+  <si>
+    <t>Model (alimentationModel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upload d'image </t>
+  </si>
+  <si>
+    <t>Model (fonctionModel)</t>
+  </si>
+  <si>
+    <t>Integration (alimentationController)</t>
+  </si>
+  <si>
+    <t>ajoutAlimentation</t>
+  </si>
+  <si>
+    <t>Modifier aliment</t>
+  </si>
+  <si>
+    <t>modifAliment</t>
+  </si>
+  <si>
+    <t>fonction modifAlimentation</t>
+  </si>
+  <si>
+    <t>Supprimer aliment</t>
+  </si>
+  <si>
+    <t>suppAliment</t>
+  </si>
+  <si>
+    <t>suppAlimentation</t>
+  </si>
+  <si>
+    <t>fonction suppAlimentation</t>
+  </si>
+  <si>
+    <t>Acheter de l'alimentation</t>
+  </si>
+  <si>
+    <t>achatAliment</t>
+  </si>
+  <si>
+    <t>fonction achatAlimentation</t>
+  </si>
+  <si>
+    <t>achatAlimentation</t>
+  </si>
+  <si>
+    <t>table elevage_achatAlimentation</t>
+  </si>
+  <si>
+    <t>Afficher le stock d'alimentation</t>
+  </si>
+  <si>
+    <t>stockAliment</t>
+  </si>
+  <si>
+    <t>afficherStockAlimentation</t>
+  </si>
+  <si>
+    <t>Modifier images d'un animal</t>
+  </si>
+  <si>
+    <t>modifAnimal</t>
+  </si>
+  <si>
+    <t>Acheter un animal</t>
+  </si>
+  <si>
+    <t>achatAnimal</t>
+  </si>
+  <si>
+    <t>fonction achatAnimal</t>
+  </si>
+  <si>
+    <t>Vendre un animal</t>
+  </si>
+  <si>
+    <t>venteAnimal</t>
+  </si>
+  <si>
+    <t>table elevage_animaux, table elevage_Ventes</t>
+  </si>
+  <si>
+    <t>fonction calculPrixTotalVente</t>
+  </si>
+  <si>
+    <t>fonction venteAnimal (insertion dans table elevage_Ventes)</t>
+  </si>
+  <si>
+    <t>Historique des transactions</t>
+  </si>
+  <si>
+    <t>histoTransaction</t>
+  </si>
+  <si>
+    <t>Model (transactionModel)</t>
+  </si>
+  <si>
+    <t>table elevage_animaux, elevage_achatAlimentation, elevage_Ventes</t>
+  </si>
+  <si>
+    <t>fonctions getHistoAchatsAnimaux, getHistoAchatsAlimentation, getHistoVentes</t>
+  </si>
+  <si>
+    <t>afficherHistorique</t>
+  </si>
+  <si>
+    <t>Nourrir les animaux</t>
+  </si>
+  <si>
+    <t>nourrirAnimaux</t>
+  </si>
+  <si>
+    <t>table  elevage_gainPoids</t>
+  </si>
+  <si>
+    <t>nourrirAnimal</t>
+  </si>
+  <si>
+    <t>Gestion des jours sans manger</t>
+  </si>
+  <si>
+    <t>Mort des animaux</t>
+  </si>
+  <si>
+    <t>Base (animauxModel)</t>
+  </si>
+  <si>
+    <t>table elevage_pertePoids</t>
+  </si>
+  <si>
+    <t>table elevage_morts</t>
+  </si>
+  <si>
+    <t>table elevage_imagesAnimaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction getJourSansManger, insertMorts </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Voir la situation de l'élevage</t>
+  </si>
+  <si>
+    <t>situationElevage</t>
+  </si>
+  <si>
+    <t>html/css (saisie de date)</t>
+  </si>
+  <si>
+    <t>fonction ajoutEspece</t>
+  </si>
+  <si>
+    <t>Vivant-mort</t>
+  </si>
+  <si>
+    <t>Afaka varotana, tsy afaka</t>
+  </si>
+  <si>
+    <t>Stock d'alimentation par espèce</t>
+  </si>
+  <si>
+    <t>Prix de vente par rapport poids à une date</t>
+  </si>
+  <si>
+    <t>fonction ajoutAlimentation</t>
+  </si>
+  <si>
+    <t>fonction getStockAlimentation (Entre deux dates)</t>
+  </si>
+  <si>
+    <t>Ajouter un type d'alimententation</t>
+  </si>
+  <si>
+    <t>fonction reduirePoids (simulation automatique)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table elevage_animaux, elevage_morts  </t>
+  </si>
+  <si>
+    <t>getSituation</t>
+  </si>
+  <si>
+    <t>fonction getPoidsParDate</t>
+  </si>
+  <si>
+    <t>fonction getVivants(date), getMorts(date)</t>
+  </si>
+  <si>
+    <t>fonction getPrixVente(date) qui est prix de vente par rapport poids</t>
+  </si>
+  <si>
+    <t>fonction getStockParEspece (date)</t>
+  </si>
+  <si>
+    <t>fonction gainPoids (Entre deux dates), nourrirAnimal (selon poids, izay kely poids no omena voalohany)</t>
   </si>
 </sst>
 </file>
@@ -348,7 +459,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Randie" refreshedDate="45686.37705185185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{DED1458C-79C6-4C36-AD97-238B3FFF0687}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G18" sheet="Feuil1"/>
+    <worksheetSource ref="A1:G22" sheet="Feuil1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="module/fonctionnalité" numFmtId="0">
@@ -926,7 +1037,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -934,7 +1045,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -942,12 +1053,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -968,18 +1079,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C2218B-D328-4E3C-965E-07B42E845F7E}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
@@ -1016,19 +1127,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1044,112 +1155,126 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
       </c>
       <c r="H3">
         <f>F3-G3</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f>G3/(G3+H3)</f>
-        <v>0</v>
+        <f t="shared" ref="I3:I66" si="0">G3/(G3+H3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <f>F4-G4</f>
+        <v>2</v>
       </c>
       <c r="I4" s="4">
-        <f>G4/(G4+H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <f>F5-G5</f>
+        <v>5</v>
       </c>
       <c r="I5" s="4">
-        <f>G5/(G5+H5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6" si="0">F6-G6</f>
-        <v>10</v>
+        <f>F6-G6</f>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
-        <f>G6/(G6+H6)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1157,673 +1282,1768 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I9" s="4"/>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>F11-G11</f>
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I14" s="4"/>
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>F16-G16</f>
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="4"/>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>101</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>F31-G31</f>
+        <v>5</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
       <c r="H35">
-        <f>F35-G35</f>
         <v>5</v>
       </c>
       <c r="I35" s="4">
-        <f>G35/(G35+H35)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
       <c r="H36">
-        <f>F36-G36</f>
         <v>5</v>
       </c>
       <c r="I36" s="4">
-        <f>G36/(G36+H36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
       <c r="H37">
+        <f>F37-G37</f>
         <v>5</v>
       </c>
       <c r="I37" s="4">
-        <f>G37/(G37+H37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I38" s="4">
-        <f>G38/(G38+H38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ref="H39" si="1">F39-G39</f>
-        <v>10</v>
-      </c>
-      <c r="I39" s="4">
-        <f>G39/(G39+H39)</f>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>65</v>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
         <v>60</v>
       </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="I61" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" ref="I67:I88" si="1">G67/(G67+H67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
+      </c>
+      <c r="D73" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>104</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>95</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" t="s">
-        <v>65</v>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>109</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" t="s">
+        <v>110</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="I86" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I18" xr:uid="{F9C2218B-D328-4E3C-965E-07B42E845F7E}"/>
+  <autoFilter ref="A1:I22" xr:uid="{F9C2218B-D328-4E3C-965E-07B42E845F7E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1855,20 +3075,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>SUM(Feuil1!F2:F1007)</f>
-        <v>64</v>
+        <f>SUM(Feuil1!F2:F1011)</f>
+        <v>209</v>
       </c>
       <c r="B2">
-        <f>SUM(Feuil1!G2:G1007)</f>
-        <v>0</v>
+        <f>SUM(Feuil1!G2:G1011)</f>
+        <v>7</v>
       </c>
       <c r="C2">
-        <f>SUM(Feuil1!H2:H1007)</f>
-        <v>64</v>
+        <f>SUM(Feuil1!H2:H1011)</f>
+        <v>202</v>
       </c>
       <c r="D2" s="4">
         <f>B2/(B2+C2)</f>
-        <v>0</v>
+        <v>3.3492822966507178E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE6B347-8246-464C-9427-EB6AEB5C08F6}">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/TodoListTrinome.xlsx
+++ b/TodoListTrinome.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Randie\Documents\L2\WEB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27480B68-B9FC-4852-B743-811C79821F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C2BE12-B36B-447D-90D3-C79684A510AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D43798CA-681C-48F3-BE3D-5C18BED38538}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$I$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
@@ -29,23 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="109">
   <si>
     <t>module/fonctionnalité</t>
   </si>
@@ -192,15 +181,6 @@
   </si>
   <si>
     <t>ajoutAlimentation</t>
-  </si>
-  <si>
-    <t>Modifier aliment</t>
-  </si>
-  <si>
-    <t>modifAliment</t>
-  </si>
-  <si>
-    <t>fonction modifAlimentation</t>
   </si>
   <si>
     <t>Supprimer aliment</t>
@@ -1079,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C2218B-D328-4E3C-965E-07B42E845F7E}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:I66" si="0">G3/(G3+H3)</f>
+        <f t="shared" ref="I3:I60" si="0">G3/(G3+H3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1195,7 +1175,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1427,10 +1407,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1448,16 +1428,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1469,10 +1449,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
@@ -1722,7 +1702,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -1743,7 +1723,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -1764,7 +1744,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -1773,7 +1753,7 @@
         <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1785,7 +1765,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -1816,7 +1796,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
@@ -1909,7 +1889,7 @@
         <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -1936,10 +1916,10 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -1951,7 +1931,6 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f>F37-G37</f>
         <v>5</v>
       </c>
       <c r="I37" s="4">
@@ -1960,50 +1939,50 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>5</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I39" s="4"/>
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -2024,16 +2003,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -2054,16 +2033,16 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -2083,50 +2062,50 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I44" s="4"/>
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
         <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -2147,16 +2126,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -2177,16 +2156,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -2206,50 +2185,41 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I49" s="4"/>
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -2270,16 +2240,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -2300,16 +2270,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -2329,36 +2299,24 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-      <c r="I53" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2369,17 +2327,26 @@
         <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="I55" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2390,10 +2357,10 @@
         <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -2423,7 +2390,7 @@
         <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -2477,10 +2444,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2491,20 +2458,23 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="I60" s="4"/>
+      <c r="I60" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -2519,22 +2489,22 @@
         <v>5</v>
       </c>
       <c r="I61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I61:I82" si="1">G61/(G61+H61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -2549,22 +2519,22 @@
         <v>5</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -2579,190 +2549,136 @@
         <v>5</v>
       </c>
       <c r="I63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64">
-        <v>5</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="I64" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I64" s="4"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="4"/>
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>5</v>
-      </c>
-      <c r="I67" s="4">
-        <f t="shared" ref="I67:I88" si="1">G67/(G67+H67)</f>
-        <v>0</v>
+      <c r="I67" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68">
-        <v>5</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>5</v>
-      </c>
-      <c r="I68" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
-      <c r="I69" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4" t="e">
+      <c r="I69" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I71" s="4"/>
+    </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D72" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2774,16 +2690,16 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2798,16 +2714,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>92</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" t="s">
-        <v>87</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2819,16 +2735,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2839,20 +2755,38 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="4"/>
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2864,16 +2798,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2884,20 +2818,38 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I80" s="4"/>
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>44</v>
+      </c>
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2908,136 +2860,10 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>105</v>
-      </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" t="s">
-        <v>94</v>
-      </c>
-      <c r="C83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" t="s">
-        <v>107</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="I84" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D86" t="s">
-        <v>110</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="I86" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" t="s">
-        <v>106</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="I87" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="I88" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -3075,20 +2901,20 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>SUM(Feuil1!F2:F1011)</f>
-        <v>209</v>
+        <f>SUM(Feuil1!F2:F1005)</f>
+        <v>184</v>
       </c>
       <c r="B2">
-        <f>SUM(Feuil1!G2:G1011)</f>
+        <f>SUM(Feuil1!G2:G1005)</f>
         <v>7</v>
       </c>
       <c r="C2">
-        <f>SUM(Feuil1!H2:H1011)</f>
-        <v>202</v>
+        <f>SUM(Feuil1!H2:H1005)</f>
+        <v>177</v>
       </c>
       <c r="D2" s="4">
         <f>B2/(B2+C2)</f>
-        <v>3.3492822966507178E-2</v>
+        <v>3.8043478260869568E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3108,22 +2934,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
